--- a/StationCode_SABC.xlsx
+++ b/StationCode_SABC.xlsx
@@ -8,162 +8,127 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\python\excel-xml-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA29E31-1B30-4FE7-AE3A-EE18437BC5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40939C-0151-456F-80DD-145C6E517F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SABC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>TN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+  <si>
+    <t>5FM</t>
   </si>
   <si>
     <t>GH</t>
   </si>
   <si>
+    <t>IKW</t>
+  </si>
+  <si>
+    <t>LES</t>
+  </si>
+  <si>
+    <t>LIG</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>MOTS</t>
+  </si>
+  <si>
+    <t>MUN</t>
+  </si>
+  <si>
+    <t>PHA</t>
+  </si>
+  <si>
+    <t>RSG</t>
+  </si>
+  <si>
+    <t>SAFM</t>
+  </si>
+  <si>
+    <t>BELA</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>UKH</t>
+  </si>
+  <si>
+    <t>UWFM</t>
+  </si>
+  <si>
+    <t>XK</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
     <t>LO</t>
   </si>
   <si>
     <t>MT</t>
   </si>
   <si>
-    <t>ND</t>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
   <si>
     <t>NS</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N7</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>ZC</t>
-  </si>
-  <si>
-    <t>VN</t>
+    <t>ZL</t>
   </si>
   <si>
     <t>XO</t>
   </si>
   <si>
-    <t>ZE</t>
-  </si>
-  <si>
-    <t>ZN</t>
-  </si>
-  <si>
-    <t>ZL</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>SJ</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>5N</t>
-  </si>
-  <si>
-    <t>5S</t>
-  </si>
-  <si>
-    <t>XK</t>
-  </si>
-  <si>
-    <t>XC</t>
-  </si>
-  <si>
-    <t>XE</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R5</t>
+    <t>BroadcasterId</t>
   </si>
   <si>
     <t>TelmarId</t>
-  </si>
-  <si>
-    <t>BroadcasterId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,16 +136,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -188,17 +454,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,31 +988,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -566,364 +1020,139 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>